--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,528 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>from Nov 21, 2025 to Dec 5, 2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Earnings</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Deductions</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Description Hrs. Amount
+Basic Pay 56.00 10,000.00
+ND1 34.00 781.61
+BASIC SALARY ADJ -3,678.16
+13th Month Bonus( NT) * 1,360.15
+RECRUIT 2,000.00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Basic Pay</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ND1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>781.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BASIC SALARY ADJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-3,678.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13th Month Bonus( NT) *</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,360.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RECRUIT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Withholding Tax</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SSS Premium</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>450.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PHIC Premium</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HDMF Premium</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Basic Pay</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ND1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>781.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BASIC SALARY ADJ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-3,678.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13th Month Bonus( NT) *</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,360.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RECRUIT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Withholding Tax</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SSS Premium</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>450.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PHIC Premium</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HDMF Premium</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Total Taxable Income</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9,103.45</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Total Deductions</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>*Total Non-taxable Earnings</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1,360.15</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NET PAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gross Pay</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9,103.45</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net Pay</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9,313.60</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Withholding Tax</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SSS Premium</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>450.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SSS Provident</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PHIC Premium</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HDMF Premium</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Non-taxable</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1,360.15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -480,7 +480,7 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Description Hrs. Amount
-Basic Pay 78.93 10,000.00
+Basic Pay 10,000.00
 (Tardiness) 0.13 (14.94)
 ND1 63.87 1,468.28
 spl_premium_amt 1.00 34.48
@@ -521,11 +521,7 @@
           <t>Basic Pay</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>78.93</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>10,000.00</t>
@@ -701,11 +697,7 @@
           <t>Basic Pay</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>78.93</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10,000.00</t>

--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>from Dec 6, 2025 to Dec 20, 2025</t>
+          <t>from Dec 21, 2025 to Jan 5, 2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -481,10 +481,13 @@
         <is>
           <t>Description Hrs. Amount
 Basic Pay 10,000.00
-(Tardiness) 0.13 (14.94)
-ND1 63.87 1,468.28
-spl_premium_amt 1.00 34.48
-ND1_SPL_PREMIUM AMT 1.00 29.89</t>
+ND1 26.00 597.70
+reg_ot_amt 0.55 79.02
+nd1_reg_ot 0.55 15.81
+spl_premium_amt 14.00 482.76
+ND1_SPL_PREMIUM AMT 10.00 298.85
+LGL_PREMIUM_AMT 8.00 919.54
+ND1_LGL_PREMIUM AMT 6.00 275.86</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,119 +534,131 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(Tardiness)</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(14.94)</t>
+          <t>597.70</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ND1</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>63.87</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,468.28</t>
+          <t>79.02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>spl_premium_amt</t>
+          <t>nd1_reg_ot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>34.48</t>
+          <t>15.81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ND1_SPL_PREMIUM AMT</t>
+          <t>spl_premium_amt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29.89</t>
+          <t>482.76</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>ND1_SPL_PREMIUM AMT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>298.85</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>LGL_PREMIUM_AMT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>919.54</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>ND1_LGL_PREMIUM AMT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>550.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>275.86</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -651,12 +666,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>139.13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -664,12 +679,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>625.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -677,175 +692,187 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hrs.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Basic Pay</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
+          <t>HDMF Premium</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(Tardiness)</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>Hrs.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(14.94)</t>
+          <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ND1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
+          <t>Basic Pay</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1,468.28</t>
+          <t>10,000.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>spl_premium_amt</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>34.48</t>
+          <t>597.70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ND1_SPL_PREMIUM AMT</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>29.89</t>
+          <t>79.02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>nd1_reg_ot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>spl_premium_amt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>482.76</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>ND1_SPL_PREMIUM AMT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>550.00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>298.85</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>LGL_PREMIUM_AMT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>919.54</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>ND1_LGL_PREMIUM AMT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>275.86</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -853,46 +880,38 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Total Taxable Income</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11,517.71</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Total Deductions</t>
-        </is>
-      </c>
+          <t>139.13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>*Total Non-taxable Earnings</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>NET PAY</t>
-        </is>
-      </c>
+          <t>625.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gross Pay</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20,621.16</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -900,12 +919,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Net Pay</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20,256.31</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -913,38 +932,46 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>Total Taxable Income</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>12,669.54</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Total Deductions</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>*Total Non-taxable Earnings</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1,000.00</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NET PAY</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>Gross Pay</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12,669.54</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -952,12 +979,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>Net Pay</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>11,205.41</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -965,12 +992,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>139.13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -978,15 +1005,67 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>SSS Premium</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>625.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SSS Provident</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PHIC Premium</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HDMF Premium</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Non-taxable</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1,360.15</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>from Dec 21, 2025 to Jan 5, 2026</t>
+          <t>from Jan 6, 2026 to Jan 20, 2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -481,13 +481,11 @@
         <is>
           <t>Description Hrs. Amount
 Basic Pay 10,000.00
-ND1 26.00 597.70
-reg_ot_amt 0.55 79.02
-nd1_reg_ot 0.55 15.81
-spl_premium_amt 14.00 482.76
-ND1_SPL_PREMIUM AMT 10.00 298.85
-LGL_PREMIUM_AMT 8.00 919.54
-ND1_LGL_PREMIUM AMT 6.00 275.86</t>
+(Absences) 1.00 (919.54)
+(Tardiness) 4.17 (479.31)
+ND1 59.17 1,360.23
+reg_ot_amt 2.20 316.09
+nd1_reg_ot 2.20 63.22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,131 +532,123 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ND1</t>
+          <t>(Absences)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>597.70</t>
+          <t>(919.54)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>reg_ot_amt</t>
+          <t>(Tardiness)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>79.02</t>
+          <t>(479.31)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nd1_reg_ot</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>59.17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>1,360.23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>spl_premium_amt</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>482.76</t>
+          <t>316.09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ND1_SPL_PREMIUM AMT</t>
+          <t>nd1_reg_ot</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>298.85</t>
+          <t>63.22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LGL_PREMIUM_AMT</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>919.54</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ND1_LGL_PREMIUM AMT</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>275.86</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>375.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -666,12 +656,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>SSS Provident</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>139.13</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -679,12 +669,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>625.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -692,12 +682,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -705,174 +695,166 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hrs.</t>
-        </is>
-      </c>
+          <t>Basic Pay</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>10,000.00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Basic Pay</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>(Absences)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>(919.54)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ND1</t>
+          <t>(Tardiness)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>597.70</t>
+          <t>(479.31)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg_ot_amt</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>59.17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>79.02</t>
+          <t>1,360.23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nd1_reg_ot</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>316.09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>spl_premium_amt</t>
+          <t>nd1_reg_ot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>482.76</t>
+          <t>63.22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ND1_SPL_PREMIUM AMT</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>298.85</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LGL_PREMIUM_AMT</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>919.54</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ND1_LGL_PREMIUM AMT</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>275.86</t>
-        </is>
-      </c>
+          <t>375.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SSS Provident</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -880,12 +862,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>139.13</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -893,12 +875,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>625.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -906,72 +888,72 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>Total Taxable Income</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>10,340.69</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Total Deductions</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>*Total Non-taxable Earnings</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NET PAY</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total Taxable Income</t>
+          <t>Gross Pay</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12,669.54</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Total Deductions</t>
-        </is>
-      </c>
+          <t>23,010.23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>*Total Non-taxable Earnings</t>
+          <t>Net Pay</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>NET PAY</t>
-        </is>
-      </c>
+          <t>21,021.10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gross Pay</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12,669.54</t>
+          <t>139.13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -979,12 +961,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Net Pay</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11,205.41</t>
+          <t>1,000.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -992,12 +974,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>SSS Provident</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>139.13</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1005,12 +987,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>625.00</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1018,12 +1000,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1031,41 +1013,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>Non-taxable</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HDMF Premium</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Non-taxable</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>from Jan 6, 2026 to Jan 20, 2026</t>
+          <t>from Jan 21, 2026 to Feb 5, 2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -481,11 +481,9 @@
         <is>
           <t>Description Hrs. Amount
 Basic Pay 10,000.00
-(Absences) 1.00 (919.54)
-(Tardiness) 4.17 (479.31)
-ND1 59.17 1,360.23
-reg_ot_amt 2.20 316.09
-nd1_reg_ot 2.20 63.22</t>
+ND1 60.00 1,379.31
+reg_ot_amt 1.00 143.68
+nd1_reg_ot 1.00 28.74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,97 +530,89 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(Absences)</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(919.54)</t>
+          <t>1,379.31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(Tardiness)</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(479.31)</t>
+          <t>143.68</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ND1</t>
+          <t>nd1_reg_ot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59.17</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,360.23</t>
+          <t>28.74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>reg_ot_amt</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>316.09</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nd1_reg_ot</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>63.22</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -630,12 +620,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -643,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>375.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -656,174 +646,170 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Basic Pay</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>ND1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,379.31</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>reg_ot_amt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hrs.</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>143.68</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Basic Pay</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>nd1_reg_ot</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>28.74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(Absences)</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>(919.54)</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(Tardiness)</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>(479.31)</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ND1</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>59.17</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,360.23</t>
-        </is>
-      </c>
+          <t>575.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg_ot_amt</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>316.09</t>
-        </is>
-      </c>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nd1_reg_ot</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>63.22</t>
-        </is>
-      </c>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Total Taxable Income</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>11,551.73</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Total Deductions</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Withholding Tax</t>
+          <t>*Total Non-taxable Earnings</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -831,17 +817,21 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NET PAY</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SSS Premium</t>
+          <t>Gross Pay</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>375.00</t>
+          <t>34,561.96</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -849,12 +839,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SSS Provident</t>
+          <t>Net Pay</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>31,297.83</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -862,12 +852,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PHIC Premium</t>
+          <t>Withholding Tax</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>139.13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -875,12 +865,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HDMF Premium</t>
+          <t>SSS Premium</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1,575.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -888,46 +878,38 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total Taxable Income</t>
+          <t>SSS Provident</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10,340.69</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Total Deductions</t>
-        </is>
-      </c>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>*Total Non-taxable Earnings</t>
+          <t>PHIC Premium</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>NET PAY</t>
-        </is>
-      </c>
+          <t>1,000.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gross Pay</t>
+          <t>HDMF Premium</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23,010.23</t>
+          <t>400.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -935,93 +917,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Net Pay</t>
+          <t>Non-taxable</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21,021.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Withholding Tax</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>139.13</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SSS Premium</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1,000.00</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SSS Provident</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PHIC Premium</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>HDMF Premium</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Non-taxable</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
